--- a/biology/Botanique/Ternstroemiaceae/Ternstroemiaceae.xlsx
+++ b/biology/Botanique/Ternstroemiaceae/Ternstroemiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ternstroemiaceae sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales.
 Ce sont des arbres ou des arbustes avec des feuilles coriaces alternes simples, généralement sans stipule, d’origine tropicales et subtropicales.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Ternstroemia, donné en l'honneur du botaniste suédois Christopher Tärnström (1703-1746). 
 </t>
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1], cette famille n'existe pas ; les espèces sont assignées aux Théacées.
-La classification phylogénétique APG (1998)[2] accepte cette famille.
-En classification phylogénétique APG II (2003)[3], cette famille est optionnelle ; ces plantes pouvant être incluses dans les Pentaphylacacées.
-En classification phylogénétique APG III (2009)[4], cette famille est invalide et ses genres sont incorporés dans la famille Pentaphylacaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas ; les espèces sont assignées aux Théacées.
+La classification phylogénétique APG (1998) accepte cette famille.
+En classification phylogénétique APG II (2003), cette famille est optionnelle ; ces plantes pouvant être incluses dans les Pentaphylacacées.
+En classification phylogénétique APG III (2009), cette famille est invalide et ses genres sont incorporés dans la famille Pentaphylacaceae.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (29 Jun 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (29 Jun 2010) :
 Adinandra Jack
 Anneslea Wall.
 Balthasaria Verdc.
